--- a/ig/ch-term/CodeSystem-ech-10.xlsx
+++ b/ig/ch-term/CodeSystem-ech-10.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/CodeSystem-ech-10.xlsx
+++ b/ig/ch-term/CodeSystem-ech-10.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/CodeSystem-ech-10.xlsx
+++ b/ig/ch-term/CodeSystem-ech-10.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
